--- a/EXPORT_FILES/ВУНЦ=П3_ВСП-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П3_ВСП-24.xlsx
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="24"/>
       <c r="M7" s="47">
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="47">
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="47">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="47">
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="47">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="24"/>
       <c r="M12" s="47">
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="47">
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="47">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="47">
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="47">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="47">
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="47">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="47">
@@ -4196,21 +4196,21 @@
         <f si="0" t="shared"/>
       </c>
       <c r="H20" s="25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" s="25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N20" s="47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O20" s="48" t="e">
         <f si="3" t="shared"/>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="54">
         <v>0</v>
@@ -4250,14 +4250,14 @@
         <f si="8" t="shared"/>
       </c>
       <c r="AB20" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC20" s="24"/>
       <c r="AD20" s="28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE20" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF20" s="24"/>
       <c r="AG20" s="53"/>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="47">
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="47">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="47">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="47">
@@ -4618,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="47">
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="47">
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="24"/>
       <c r="M27" s="47">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="47">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="47">
@@ -5033,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="47">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="24"/>
       <c r="M31" s="47">
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="47">
@@ -5282,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="47">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="24"/>
       <c r="M34" s="47">
@@ -5448,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="24"/>
       <c r="M35" s="47">
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" s="24"/>
       <c r="M36" s="47">
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="47">
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="24"/>
       <c r="M38" s="47">
